--- a/Output_testing/R1_201907/Country/HKD/MN/PAPUA NEW GUINEA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PAPUA NEW GUINEA_201907_HKD_MN.xlsx
@@ -658,8 +658,10 @@
       <c r="G10" s="8" t="n">
         <v>64.11579</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>3106.970754651313</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I10" s="9" t="n">
         <v>-13.12917978144863</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/PAPUA NEW GUINEA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PAPUA NEW GUINEA_201907_HKD_MN.xlsx
@@ -812,136 +812,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>189.737591</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>64.36195728818579</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>114.121762</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>49.8059755083988</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>115.032707</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>54.68663408726376</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>35.67226</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>38.28957655130449</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-28.38773462998929</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>27.158135</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.212463991369974</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>27.158471</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.85272745325786</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>12.845503</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.106761638043073</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>13.292286</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.26755698514288</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>129.8719942142401</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>8.878783</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.011822007464352</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>12.62046</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.507926890094168</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.321966</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.857871760574191</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>7.413492</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.957428810130993</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>63.81170483235661</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.827949</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.6200688795663161</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>15.757293</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.87692982900723</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>9.595794</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.561847573097285</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>4.141014</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.444845169692742</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-21.79005545313737</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5.844026</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.982384986657954</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>6.11389</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.668275097268866</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.455253</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.11803057522748</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.493892</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.75024305149128</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>27.00041838008032</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.730732</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.265522621912428</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.69405</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.612188250535429</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.881602</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.4191142436089929</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>3.38629</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.634746163543237</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>504.8771861508205</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.464979</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.4969437807718827</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.556729</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.6794007127861744</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.270519</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.079406413874795</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.705123</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.903601122810678</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>75.7536597979672</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3.107622</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.05415396800219</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.453232</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.070660063138704</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>3.150364</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.497685378382764</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.005553</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.152702831869872</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>89.23971145363019</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.488801</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8442402099476118</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.475543</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.080397216685001</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.267912</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.553567784624753</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.803823</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.93617165953331</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>6.738562497596079</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.443116</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.548999153807814</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>50.559115</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.15044226612149</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>43.181241</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>18.84551897882777</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>46.527232</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>22.1190805453029</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>17.807566</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>19.11412850067271</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-23.59008186418655</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1284,541 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>26.622611</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>79.74397863957594</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>26.768051</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>73.68826372662213</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>12.845503</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>61.74353551991261</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>13.031137</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>70.91581112092551</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>125.3557777096408</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>5.844026</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>17.50489027966214</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>6.11389</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>16.83058429302745</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>4.455253</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.41473727075516</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.493892</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>19.01385774310505</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>27.00041838008032</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.443116</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.853477534737416</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.9498996633378868</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>2.224703</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.124259901380472</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.988621561411479</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.471083539862827</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>5.523285318343296</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.344582517608359</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.53716080588379</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1531461410709956</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2441717410066175</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2946942725968646</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1193001356207773</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>27.3794305636258</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.08235132282816933</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.08930911986463717</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.357108207387696</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.507095</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.395953336103979</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>3.028821</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>14.5584113753239</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.2001207342241885</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2367283254014028</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.06141043990141406</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.05424874356393368</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1850,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>189.737591</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>72.58164705034831</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>114.121762</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>59.1897590642644</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>115.032707</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>60.68910719734875</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>35.67226</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>47.69725758278179</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-28.38773462998929</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>8.878783</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.396462928332598</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>12.62046</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.545657669395134</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>12.321966</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.500839065328496</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>7.413492</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.912554951996093</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>63.81170483235661</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.827949</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.6992581092907264</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>15.757293</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.172590046191365</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>9.595794</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.062561647877034</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.141014</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.536935742560341</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-21.79005545313737</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3.413607</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.305830948610486</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1.469347</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7620833519184509</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2468431644243054</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.115971</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.166354231760986</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>926.1347357744328</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1.464979</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.560408657840355</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.556729</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.807404414579169</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.270519</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.197883407061064</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.705123</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.617010767585441</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>75.7536597979672</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.107622</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.188780367565105</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.453232</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.272379679948715</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.150364</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.662073191989374</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.005553</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.681618098682863</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>89.23971145363019</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.437673</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.932500093300772</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.386845</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.237947767348213</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.206602</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.691743310163369</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.781901</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.382573769758811</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.526198112671766</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1568026774896276</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.576494</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.8176556196727705</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.581796</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.834526018833387</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.437436</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.921990789222873</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>14.58494091538114</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1065774833188242</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.986726</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.51176982530681</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.125816</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5939594893519318</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.073256</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.435046949205519</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>364.1408091335654</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.91555</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7327687321975892</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.425944</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.258226637469879</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>2.071293</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.092775491357585</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.882946</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.180584095139664</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-17.37542858854003</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>47.940365</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.33896295170561</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>37.451768</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>19.42452592390509</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>38.719506</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20.4276880162647</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>14.55996</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>19.46807302130562</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-22.56801748265806</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2314,507 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>73.701414</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>48.85656842515186</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>304.69731</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>74.0049977252431</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>113.154486</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>64.29529597897648</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>22.18233466381003</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.8705318614152392</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>66.128193</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>43.83629038835195</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>82.710234</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20.08869287039103</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>53.238055</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>30.25029430622864</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>7.893754</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>54.28405598570168</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.933269</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.944460083328615</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>13.191721</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.204010178485138</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>6.469228</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.675867777928681</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>297.8884180356604</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WOOD, SIMPLY WORKED, AND RAILWAY SLEEPERS OF WOOD</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.560318</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.03433270808069</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>4.248381</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.03184838172994</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.038657</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.5901733249500668</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-43.58546664088521</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.4886589696666536</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.204746403666015</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.317402453792816</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.2634737118687517</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>0.901843</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.21903996843138</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.1432395810037985</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-6.648891851358107</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>0.936986</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>6.443499567103139</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.697197</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.4621709555845238</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.263225</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.3068125650714482</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1083947872179405</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-81.93974107121724</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.961988</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>6.615434234405226</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.05450021315837794</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.208268</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.2934645881563052</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.100006899182802</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-85.23845228689758</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4.430682</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>30.4690758975819</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>5.352558</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.548203514475231</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>3.504333</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.8511337224916569</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.09795169046968071</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-94.67102043743587</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
